--- a/config_1.12/fish_3d_yutu_random_5.xlsx
+++ b/config_1.12/fish_3d_yutu_random_5.xlsx
@@ -336,19 +336,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,176,177,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,178,</t>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H20"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="21">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>2</v>
@@ -1824,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="21">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>2</v>
@@ -1848,7 +1848,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="21">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="22">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="21">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="22">
         <v>2</v>
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
